--- a/5TIB2/Egzamin próbny/7 - Łukasz Zawiła 5TIB/INF_03_2024_06_08_SG_zo.xlsx
+++ b/5TIB2/Egzamin próbny/7 - Łukasz Zawiła 5TIB/INF_03_2024_06_08_SG_zo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15408" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15405" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Plagiat</t>
+  </si>
+  <si>
+    <t>https://github.com/Chr1skyy/Egzamin-Zawodowy-E14-EE09-INF03/blob/main/inf03/inf03_2024_06_08/rozwiazanie/main.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +54,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,9 +91,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -471,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,16 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -496,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6">
+    <row r="14" spans="1:13" ht="15.75">
       <c r="K14">
         <f>SUM(K15:K67)</f>
         <v>100</v>
@@ -506,7 +522,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="26.4" customHeight="1">
+    <row r="15" spans="1:13" ht="26.45" customHeight="1">
       <c r="K15">
         <v>2</v>
       </c>
@@ -518,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="25.2" customHeight="1">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1">
       <c r="K16">
         <v>2</v>
       </c>
@@ -554,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="11:13" ht="103.8" customHeight="1">
+    <row r="19" spans="11:13" ht="103.9" customHeight="1">
       <c r="K19">
         <v>3</v>
       </c>
@@ -596,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="11:13" ht="26.4" customHeight="1">
+    <row r="24" spans="11:13" ht="26.45" customHeight="1">
       <c r="K24">
         <v>2</v>
       </c>
@@ -632,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="11:13" ht="50.4" customHeight="1">
+    <row r="27" spans="11:13" ht="50.45" customHeight="1">
       <c r="K27">
         <v>2</v>
       </c>
@@ -668,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="11:13" ht="37.799999999999997" customHeight="1">
+    <row r="30" spans="11:13" ht="37.9" customHeight="1">
       <c r="K30">
         <v>2</v>
       </c>
@@ -692,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="11:13" ht="25.2" customHeight="1">
+    <row r="32" spans="11:13" ht="25.15" customHeight="1">
       <c r="K32">
         <v>2</v>
       </c>
@@ -740,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="11:13" ht="25.8" customHeight="1">
+    <row r="37" spans="11:13" ht="25.9" customHeight="1">
       <c r="K37">
         <v>2</v>
       </c>
@@ -812,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="11:13" ht="50.4" customHeight="1">
+    <row r="43" spans="11:13" ht="50.45" customHeight="1">
       <c r="K43">
         <v>2</v>
       </c>
@@ -842,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="11:13" ht="23.4" customHeight="1">
+    <row r="47" spans="11:13" ht="23.45" customHeight="1">
       <c r="K47">
         <v>2</v>
       </c>
@@ -854,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="11:13" ht="37.799999999999997" customHeight="1">
+    <row r="48" spans="11:13" ht="37.9" customHeight="1">
       <c r="K48">
         <v>2</v>
       </c>
@@ -878,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="11:13" ht="28.2" customHeight="1">
+    <row r="50" spans="11:13" ht="28.15" customHeight="1">
       <c r="K50">
         <v>2</v>
       </c>
@@ -902,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="11:13" ht="25.2" customHeight="1">
+    <row r="52" spans="11:13" ht="25.15" customHeight="1">
       <c r="K52">
         <v>2</v>
       </c>
@@ -938,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="11:13" ht="23.4" customHeight="1">
+    <row r="55" spans="11:13" ht="23.45" customHeight="1">
       <c r="K55">
         <v>2</v>
       </c>
@@ -968,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="11:13" ht="25.8" customHeight="1">
+    <row r="58" spans="11:13" ht="25.9" customHeight="1">
       <c r="M58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1022,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="11:13" ht="25.2" customHeight="1">
+    <row r="63" spans="11:13" ht="25.15" customHeight="1">
       <c r="K63">
         <v>4</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="11:13" ht="27" customHeight="1">
+    <row r="65" spans="3:13" ht="27" customHeight="1">
       <c r="K65">
         <v>4</v>
       </c>
@@ -1058,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="11:13" ht="25.8" customHeight="1">
+    <row r="66" spans="3:13" ht="25.9" customHeight="1">
       <c r="K66">
         <v>3</v>
       </c>
@@ -1070,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="11:13" ht="25.8" customHeight="1">
+    <row r="67" spans="3:13" ht="25.9" customHeight="1">
       <c r="K67">
         <v>2</v>
       </c>
@@ -1081,9 +1097,23 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" ht="18.75">
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" ht="18.75">
+      <c r="C72" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>